--- a/src/종합/과제8/종합과제8.xlsx
+++ b/src/종합/과제8/종합과제8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJ-BU-702-P18\Desktop\tj2025A_backend\src\종합\과제8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7850C742-6B63-4EBF-9E55-BC2ED94580B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981EA1F-2144-4977-A842-EC1D71B087C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="75" windowWidth="14715" windowHeight="15525" xr2:uid="{A5DC301F-8648-4DC2-9C71-01792928F9FC}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="14715" windowHeight="15525" firstSheet="3" activeTab="3" xr2:uid="{A5DC301F-8648-4DC2-9C71-01792928F9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="1.요구사항" sheetId="1" r:id="rId1"/>
@@ -686,6 +686,148 @@
         <a:xfrm>
           <a:off x="762000" y="447675"/>
           <a:ext cx="4277322" cy="6744641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371718</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87546CBD-C623-429F-A51E-9045E324EFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="504825"/>
+          <a:ext cx="1743318" cy="1790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114603</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF778178-6F33-406E-8CEE-7D8A0BE3680F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4152900"/>
+          <a:ext cx="2172003" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76498</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939974F5-EBFD-4EFE-87B5-63AEE3BB0A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="485775"/>
+          <a:ext cx="2133898" cy="2391109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -996,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DFB9F2-1060-4F75-8BCC-CFE6D9B3EB61}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1013,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B757CC38-6B07-463D-AFB9-2C23CFE9C6DC}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1169,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1035,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F86E888-4F2E-4474-9CA9-FCE07AF4E412}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1165,6 +1308,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1172,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030E4B86-6825-4EC5-8EF6-E1CB0C898D49}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1498,7 @@
   <dimension ref="B2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,6 +1522,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1386,7 +1531,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1399,6 +1544,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
